--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -16,10 +16,10 @@
     <t>correo</t>
   </si>
   <si>
-    <t>nombre o razón</t>
-  </si>
-  <si>
-    <t>dni o ruc</t>
+    <t>nombre_razon</t>
+  </si>
+  <si>
+    <t>dni_ruc</t>
   </si>
   <si>
     <t>numdoc</t>
@@ -429,7 +429,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -467,10 +466,10 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -687,9 +686,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="32.29"/>
     <col customWidth="1" min="2" max="2" width="31.43"/>
-    <col customWidth="1" min="3" max="4" width="8.71"/>
+    <col customWidth="1" min="3" max="3" width="8.71"/>
+    <col customWidth="1" min="4" max="4" width="21.43"/>
     <col customWidth="1" min="5" max="5" width="82.43"/>
     <col customWidth="1" min="6" max="6" width="13.14"/>
     <col customWidth="1" min="7" max="7" width="8.57"/>
@@ -697,17 +697,16 @@
     <col customWidth="1" min="9" max="12" width="8.71"/>
     <col customWidth="1" min="13" max="13" width="44.86"/>
     <col customWidth="1" min="14" max="14" width="20.57"/>
-    <col customWidth="1" min="15" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -745,882 +744,882 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="3">
         <v>961.9</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="3">
         <v>2758.49</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="3">
         <v>2634.09</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="3">
         <v>140.5</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="3">
         <v>4862.38</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="3">
         <v>4611.27</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="3" t="s">
         <v>69</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="3">
         <v>738.07</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="3">
         <v>787.17</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="3">
         <v>845.16</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="3" t="s">
         <v>32</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="3">
         <v>2289.89</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="3">
         <v>3322.72</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="3">
         <v>2531.34</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N13" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="3">
         <v>4625.22</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N14" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="3">
         <v>3087.27</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="3">
         <v>3317.43</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N16" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="3">
         <v>4280.78</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="N17" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="3">
         <v>4510.15</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="N18" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="3">
         <v>1065.85</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="N19" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="3">
         <v>2000.91</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="N20" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="3" t="s">
         <v>32</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="3">
         <v>3829.01</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="N21" s="3" t="s">
         <v>25</v>
       </c>
     </row>
